--- a/seeding/subcategories-features-seeding.xlsx
+++ b/seeding/subcategories-features-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF14F40-82DF-44AD-9E3B-F56F542818DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAB6FE0-E610-478D-B4FA-0F7ECCED05DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663A57D0-1015-4C62-B290-2E06E81370DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
   <si>
     <t>Subcategories - Features</t>
   </si>
@@ -83,18 +83,12 @@
     <t>Promotional Electric Guitars</t>
   </si>
   <si>
-    <t>Short-Scale Electric Guitars</t>
-  </si>
-  <si>
     <t>Travel Electric Guitars</t>
   </si>
   <si>
     <t>Nylon-String Electric Guitars</t>
   </si>
   <si>
-    <t>Custom Electric Guitars</t>
-  </si>
-  <si>
     <t>Signature Model Electric Guitars</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>Offset Electric Guitars</t>
   </si>
   <si>
-    <t>Relic Electric Guitars</t>
-  </si>
-  <si>
     <t>Exotic Woods Electric Guitars</t>
   </si>
   <si>
@@ -149,66 +140,9 @@
     <t>Jerry Garcia-Style Electric Guitars</t>
   </si>
   <si>
-    <t>Guitar Repair</t>
-  </si>
-  <si>
-    <t>Amp Repair</t>
-  </si>
-  <si>
-    <t>Guitar Lessons</t>
-  </si>
-  <si>
-    <t>Guitar Restoration</t>
-  </si>
-  <si>
-    <t>Guitar Setups and Modifications</t>
-  </si>
-  <si>
-    <t>Guitar Parts</t>
-  </si>
-  <si>
-    <t>Amp Parts</t>
-  </si>
-  <si>
-    <t>Pickups</t>
-  </si>
-  <si>
     <t>B-Benders</t>
   </si>
   <si>
-    <t>Guitar Painting/Refinishing</t>
-  </si>
-  <si>
-    <t>Effects Pedals</t>
-  </si>
-  <si>
-    <t>Amps</t>
-  </si>
-  <si>
-    <t>Electric Bass Guitars</t>
-  </si>
-  <si>
-    <t>Acoustic Guitars</t>
-  </si>
-  <si>
-    <t>Nylon Acoustic Guitars</t>
-  </si>
-  <si>
-    <t>Archtop Guitars</t>
-  </si>
-  <si>
-    <t>Gypsy Jazz Guitars</t>
-  </si>
-  <si>
-    <t>Ukuleles</t>
-  </si>
-  <si>
-    <t>Mandolins</t>
-  </si>
-  <si>
-    <t>Banjos</t>
-  </si>
-  <si>
     <t>Short Name</t>
   </si>
   <si>
@@ -257,9 +191,6 @@
     <t>Promotional</t>
   </si>
   <si>
-    <t>Short-Scale</t>
-  </si>
-  <si>
     <t>Travel</t>
   </si>
   <si>
@@ -329,33 +260,6 @@
     <t>Jerry Garcia Style</t>
   </si>
   <si>
-    <t>Lessons</t>
-  </si>
-  <si>
-    <t>Restoration</t>
-  </si>
-  <si>
-    <t>Setups/Modifications</t>
-  </si>
-  <si>
-    <t>Painting/Refinishing</t>
-  </si>
-  <si>
-    <t>Guitar Relicing</t>
-  </si>
-  <si>
-    <t>Relicing</t>
-  </si>
-  <si>
-    <t>Efx Pedals</t>
-  </si>
-  <si>
-    <t>Bass  Guitars</t>
-  </si>
-  <si>
-    <t>Gypsy Guitars</t>
-  </si>
-  <si>
     <t>Reclaimed or Salvaged Woods</t>
   </si>
   <si>
@@ -375,13 +279,226 @@
   </si>
   <si>
     <t>For Girls</t>
+  </si>
+  <si>
+    <t>Semi-Hollow Body</t>
+  </si>
+  <si>
+    <t>Hollow-Body</t>
+  </si>
+  <si>
+    <t>Semi-Hollow</t>
+  </si>
+  <si>
+    <t>Chambered</t>
+  </si>
+  <si>
+    <t>Red Special-Type</t>
+  </si>
+  <si>
+    <t>Red Special</t>
+  </si>
+  <si>
+    <t>Relic / Distressed Electric Guitars</t>
+  </si>
+  <si>
+    <t>Hybrid Guitar Co.</t>
+  </si>
+  <si>
+    <t>Somnium, Relish, Gyrock by Wild Customs</t>
+  </si>
+  <si>
+    <t>Electrophonic Innovations</t>
+  </si>
+  <si>
+    <t>Bad Seed, Alquier</t>
+  </si>
+  <si>
+    <t>Ozztosh, Aluminati, Drewman</t>
+  </si>
+  <si>
+    <t>James Trussart</t>
+  </si>
+  <si>
+    <t>Licea, Alquier</t>
+  </si>
+  <si>
+    <t>Brand O'Guitar</t>
+  </si>
+  <si>
+    <t>Traveler Guitar, Stroebel, Stewart Guitar Co., Chiquita by Erlewine, Ciari, Hofner</t>
+  </si>
+  <si>
+    <t>Godin, Kiesel, Gillett, (Peter White's Guitar), Ibanez(?)</t>
+  </si>
+  <si>
+    <t>B.C. Rich, Daemoness</t>
+  </si>
+  <si>
+    <t>Steinberger, Claas, Strandberg</t>
+  </si>
+  <si>
+    <t>Prism, Gallasso</t>
+  </si>
+  <si>
+    <t>Bohemian Guitars, Hayburner Guitars</t>
+  </si>
+  <si>
+    <t>Clear Creek Guitar Co., Beltona, Danelectro, Beard, Mule, National, Republic, Eastwood</t>
+  </si>
+  <si>
+    <t>Maybach, Eastman, Jerry Corsa</t>
+  </si>
+  <si>
+    <t>Phantom Guitar Works</t>
+  </si>
+  <si>
+    <t>Born Guitars</t>
+  </si>
+  <si>
+    <t>Loog Guitars</t>
+  </si>
+  <si>
+    <t>Fretlight Guitars</t>
+  </si>
+  <si>
+    <t>Daisy Rock Guitars</t>
+  </si>
+  <si>
+    <t>Danser, Brian May</t>
+  </si>
+  <si>
+    <t>San Dimas-Style Electric Guitars</t>
+  </si>
+  <si>
+    <t>Composite Electric Guitars</t>
+  </si>
+  <si>
+    <t>Composites</t>
+  </si>
+  <si>
+    <t>Carbon Fiber Electric Guitars</t>
+  </si>
+  <si>
+    <t>Carbon Fiber</t>
+  </si>
+  <si>
+    <t>Flaxwood</t>
+  </si>
+  <si>
+    <t>Detroit Guitar Co.</t>
+  </si>
+  <si>
+    <t>Abasi Concepts</t>
+  </si>
+  <si>
+    <t>Charvel, Luxxtone</t>
+  </si>
+  <si>
+    <t>San Dimas</t>
+  </si>
+  <si>
+    <t>Hard Luck Kings</t>
+  </si>
+  <si>
+    <t>B.A. Ferguson Guitars</t>
+  </si>
+  <si>
+    <t>High Water Guitars, Lieber Guitars, others, https://scarletfireguitarsllc.com/about-us/, Phred Instruments, https://www.dgncustomguitars.com/terrapin.html, Rusch Guitars Wolf Tribute, http://moriartyguitars.com/history/</t>
+  </si>
+  <si>
+    <t>Hallmark, Wilson Bros Guitar Company, Eastman, Airline, Danelectro</t>
+  </si>
+  <si>
+    <t>String Bender Guitars, Forrest Lee Guitars, rollingbender.com, mcvaybenders.com (McVay Benders), Crook Custom Guitars</t>
+  </si>
+  <si>
+    <t>Lap Steels</t>
+  </si>
+  <si>
+    <t>Asher, Chatsworth, Walker</t>
+  </si>
+  <si>
+    <t>Lap Steel Electrics</t>
+  </si>
+  <si>
+    <t>Paisley Guitars</t>
+  </si>
+  <si>
+    <t>Paisleys</t>
+  </si>
+  <si>
+    <t>Crook Custom Guitars</t>
+  </si>
+  <si>
+    <t>Krappy Guitars</t>
+  </si>
+  <si>
+    <t>Fano, Novo, BilT, Rivolta, DiPinto, MusicVox</t>
+  </si>
+  <si>
+    <t>Strandberg, Claas</t>
+  </si>
+  <si>
+    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone</t>
+  </si>
+  <si>
+    <t>Lace Music Products, Del Puckett, Chickenbone John, Krodog, C.B. Gitty</t>
+  </si>
+  <si>
+    <t>DiPinto, MusicVox, Kauer, BilT, Rivolta</t>
+  </si>
+  <si>
+    <t>Elite Electric Guitars</t>
+  </si>
+  <si>
+    <t>D'Pergo, Lentz</t>
+  </si>
+  <si>
+    <t>Slick, Gene Simmons</t>
+  </si>
+  <si>
+    <t>Grez, Reverend, Danelectro, Chapman ML3, Ibanez, PRS, Supro, LsL</t>
+  </si>
+  <si>
+    <t>Italia, Reverend, Eastwood, Guild Starfire, Fender, Gretsch, Godin, Taylor, Rickenbacker</t>
+  </si>
+  <si>
+    <t>Cindy, Creston Lea, Vigier, James Trussart, Postal</t>
+  </si>
+  <si>
+    <t>Palir, Whitfill, Nashguitars, Rock N Roll Relics, Luxxtone, Suhr</t>
+  </si>
+  <si>
+    <t>Barlow, LsL, Dunable, Born</t>
+  </si>
+  <si>
+    <t>Fiberglass Guitars</t>
+  </si>
+  <si>
+    <t>Fiberglass</t>
+  </si>
+  <si>
+    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars</t>
+  </si>
+  <si>
+    <t>Supro, Guitar Kits USA</t>
+  </si>
+  <si>
+    <t>DIY</t>
+  </si>
+  <si>
+    <t>Do-It-Yourself (DIY)</t>
+  </si>
+  <si>
+    <t>Solo Guitars, Ronin Guitars, Alloy Guitars, MJT Guitars, GuitarKitsUSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +510,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,19 +555,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{221269F0-30CC-4F9B-AADF-F6995D22B689}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -751,547 +915,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED715EF2-3FF9-4C28-BB63-69D08E99D979}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.42578125" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C30" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="39" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="40" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C41" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C42" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="54" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" t="s">
-        <v>113</v>
+        <v>150</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C42" r:id="rId1" display="https://www.facebook.com/highwaterguitars/ Mark Megaro" xr:uid="{9F5F3326-D36C-45AA-A87C-2129EC923B62}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/seeding/subcategories-features-seeding.xlsx
+++ b/seeding/subcategories-features-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAB6FE0-E610-478D-B4FA-0F7ECCED05DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3712C-EB4A-46C3-8AAF-3CFDF90B9868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663A57D0-1015-4C62-B290-2E06E81370DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
   <si>
     <t>Subcategories - Features</t>
   </si>
@@ -320,9 +320,6 @@
     <t>James Trussart</t>
   </si>
   <si>
-    <t>Licea, Alquier</t>
-  </si>
-  <si>
     <t>Brand O'Guitar</t>
   </si>
   <si>
@@ -359,15 +356,9 @@
     <t>Loog Guitars</t>
   </si>
   <si>
-    <t>Fretlight Guitars</t>
-  </si>
-  <si>
     <t>Daisy Rock Guitars</t>
   </si>
   <si>
-    <t>Danser, Brian May</t>
-  </si>
-  <si>
     <t>San Dimas-Style Electric Guitars</t>
   </si>
   <si>
@@ -428,9 +419,6 @@
     <t>Paisleys</t>
   </si>
   <si>
-    <t>Crook Custom Guitars</t>
-  </si>
-  <si>
     <t>Krappy Guitars</t>
   </si>
   <si>
@@ -479,9 +467,6 @@
     <t>Fiberglass</t>
   </si>
   <si>
-    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars</t>
-  </si>
-  <si>
     <t>Supro, Guitar Kits USA</t>
   </si>
   <si>
@@ -491,7 +476,43 @@
     <t>Do-It-Yourself (DIY)</t>
   </si>
   <si>
-    <t>Solo Guitars, Ronin Guitars, Alloy Guitars, MJT Guitars, GuitarKitsUSA</t>
+    <t>MIDI Guitars</t>
+  </si>
+  <si>
+    <t>MIDI</t>
+  </si>
+  <si>
+    <t>Solo Guitars, Ronin Guitars, Alloy Guitars, MJT Guitars, GuitarKitsUSA, BYOG</t>
+  </si>
+  <si>
+    <t>Gretsch, Collings, Ibanez, Epiphone</t>
+  </si>
+  <si>
+    <t>Rob O'Reilly, Godin, Kiesel,  Jamstix, PlayJammy.com, Digital Ear https://www.digital-ear.com/digital-ear/index.asp, Jam Origin</t>
+  </si>
+  <si>
+    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars, Unified Guitar Works-http://www.unifiedguitarworks.com/, ToneRevival Guitars, Woodward Custom Guitar Co. (Detroit), Walla Walla Guitar Co.</t>
+  </si>
+  <si>
+    <t>Dansan, RS Custom Guitars http://rscustomguitars.com/, Brian May, The Guyton Guitar Co.</t>
+  </si>
+  <si>
+    <t>Fretlight Guitars, Visual Note (Italy)</t>
+  </si>
+  <si>
+    <t>James Trussart, Zemaitis</t>
+  </si>
+  <si>
+    <t>Licea, Alquier, Zerberus</t>
+  </si>
+  <si>
+    <t>Stone Top</t>
+  </si>
+  <si>
+    <t>Zerberus</t>
+  </si>
+  <si>
+    <t>Crook Custom Guitars, Zeal Guitars, Ralph and Sandy's Custom Shop</t>
   </si>
 </sst>
 </file>
@@ -915,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED715EF2-3FF9-4C28-BB63-69D08E99D979}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.42578125" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -952,7 +973,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -963,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,7 +995,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,7 +1028,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1018,7 +1039,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,13 +1055,13 @@
     </row>
     <row r="11" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1073,7 +1094,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,7 +1116,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,7 +1127,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1117,7 +1138,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,40 +1149,40 @@
         <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,7 +1193,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,18 +1204,18 @@
         <v>56</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1226,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,7 +1237,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,7 +1248,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1238,7 +1259,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,7 +1270,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,7 +1281,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,7 +1292,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1282,7 +1303,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,7 +1314,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1325,7 @@
         <v>67</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,7 +1336,7 @@
         <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1347,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,7 +1374,7 @@
         <v>73</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1385,7 @@
         <v>72</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,29 +1396,29 @@
         <v>74</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,10 +1429,10 @@
         <v>35</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>78</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1451,7 @@
         <v>76</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,7 +1462,7 @@
         <v>77</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,7 +1473,7 @@
         <v>79</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,7 +1484,7 @@
         <v>80</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1474,7 +1495,7 @@
         <v>81</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1506,7 @@
         <v>84</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,6 +1516,9 @@
       <c r="B53" t="s">
         <v>85</v>
       </c>
+      <c r="C53" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1504,18 +1528,40 @@
         <v>87</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B55" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>152</v>
+    </row>
+    <row r="57" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/seeding/subcategories-features-seeding.xlsx
+++ b/seeding/subcategories-features-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3712C-EB4A-46C3-8AAF-3CFDF90B9868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9008EC-BA25-4430-AE43-9C1A959D9CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663A57D0-1015-4C62-B290-2E06E81370DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
   <si>
     <t>Subcategories - Features</t>
   </si>
@@ -125,12 +125,6 @@
     <t>LP-Style Electric Guitars</t>
   </si>
   <si>
-    <t>TE-Style Electric Guitars</t>
-  </si>
-  <si>
-    <t>ST-Style Electric Guitars</t>
-  </si>
-  <si>
     <t>MOS-Style Electric Guitars</t>
   </si>
   <si>
@@ -245,12 +239,6 @@
     <t>LP-Style</t>
   </si>
   <si>
-    <t>TE-Style</t>
-  </si>
-  <si>
-    <t>ST-Style</t>
-  </si>
-  <si>
     <t>Vox-Style</t>
   </si>
   <si>
@@ -332,9 +320,6 @@
     <t>B.C. Rich, Daemoness</t>
   </si>
   <si>
-    <t>Steinberger, Claas, Strandberg</t>
-  </si>
-  <si>
     <t>Prism, Gallasso</t>
   </si>
   <si>
@@ -377,9 +362,6 @@
     <t>Flaxwood</t>
   </si>
   <si>
-    <t>Detroit Guitar Co.</t>
-  </si>
-  <si>
     <t>Abasi Concepts</t>
   </si>
   <si>
@@ -395,9 +377,6 @@
     <t>B.A. Ferguson Guitars</t>
   </si>
   <si>
-    <t>High Water Guitars, Lieber Guitars, others, https://scarletfireguitarsllc.com/about-us/, Phred Instruments, https://www.dgncustomguitars.com/terrapin.html, Rusch Guitars Wolf Tribute, http://moriartyguitars.com/history/</t>
-  </si>
-  <si>
     <t>Hallmark, Wilson Bros Guitar Company, Eastman, Airline, Danelectro</t>
   </si>
   <si>
@@ -407,9 +386,6 @@
     <t>Lap Steels</t>
   </si>
   <si>
-    <t>Asher, Chatsworth, Walker</t>
-  </si>
-  <si>
     <t>Lap Steel Electrics</t>
   </si>
   <si>
@@ -428,9 +404,6 @@
     <t>Strandberg, Claas</t>
   </si>
   <si>
-    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone</t>
-  </si>
-  <si>
     <t>Lace Music Products, Del Puckett, Chickenbone John, Krodog, C.B. Gitty</t>
   </si>
   <si>
@@ -452,15 +425,6 @@
     <t>Italia, Reverend, Eastwood, Guild Starfire, Fender, Gretsch, Godin, Taylor, Rickenbacker</t>
   </si>
   <si>
-    <t>Cindy, Creston Lea, Vigier, James Trussart, Postal</t>
-  </si>
-  <si>
-    <t>Palir, Whitfill, Nashguitars, Rock N Roll Relics, Luxxtone, Suhr</t>
-  </si>
-  <si>
-    <t>Barlow, LsL, Dunable, Born</t>
-  </si>
-  <si>
     <t>Fiberglass Guitars</t>
   </si>
   <si>
@@ -482,18 +446,9 @@
     <t>MIDI</t>
   </si>
   <si>
-    <t>Solo Guitars, Ronin Guitars, Alloy Guitars, MJT Guitars, GuitarKitsUSA, BYOG</t>
-  </si>
-  <si>
-    <t>Gretsch, Collings, Ibanez, Epiphone</t>
-  </si>
-  <si>
     <t>Rob O'Reilly, Godin, Kiesel,  Jamstix, PlayJammy.com, Digital Ear https://www.digital-ear.com/digital-ear/index.asp, Jam Origin</t>
   </si>
   <si>
-    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars, Unified Guitar Works-http://www.unifiedguitarworks.com/, ToneRevival Guitars, Woodward Custom Guitar Co. (Detroit), Walla Walla Guitar Co.</t>
-  </si>
-  <si>
     <t>Dansan, RS Custom Guitars http://rscustomguitars.com/, Brian May, The Guyton Guitar Co.</t>
   </si>
   <si>
@@ -512,7 +467,46 @@
     <t>Zerberus</t>
   </si>
   <si>
-    <t>Crook Custom Guitars, Zeal Guitars, Ralph and Sandy's Custom Shop</t>
+    <t>Detroit Guitar Co., Rubato Guitars, Miller Instruments, Gus, Fibertone, Hathaway Guitars</t>
+  </si>
+  <si>
+    <t>Solo Guitars, Ronin Guitars, Alloy Guitars, MJT Guitars, GuitarKitsUSA, BYOG, Pit Bull Guitars, MOJOTone (?), StewMac</t>
+  </si>
+  <si>
+    <t>Steinberger, Claas, Strandberg, Kiesel</t>
+  </si>
+  <si>
+    <t>High Water Guitars, Lieber Guitars, others, https://scarletfireguitarsllc.com/about-us/, Phred Instruments, https://www.dgncustomguitars.com/terrapin.html, Rusch Guitars Wolf Tribute, http://moriartyguitars.com/history/, Revelator by Scott Walker Custom Guitars</t>
+  </si>
+  <si>
+    <t>Palir, Whitfill, Nashguitars, Rock N Roll Relics, Luxxtone, Suhr, Bravewood, MJT Aged Finishes, McLoughlin Guitars (Pekin IL John), K-Line Guitars, Mike Smith Guitars, Rebel Relic Guitars</t>
+  </si>
+  <si>
+    <t>Croc Top</t>
+  </si>
+  <si>
+    <t>Dean Zelinsky Guitars</t>
+  </si>
+  <si>
+    <t>Cindy, Creston Lea, Vigier, James Trussart, Postal, Walla Walla, McSwain</t>
+  </si>
+  <si>
+    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars,</t>
+  </si>
+  <si>
+    <t>Gretsch, Collings, Ibanez, Epiphone, Fibertone, Master Craftsman Guitars</t>
+  </si>
+  <si>
+    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars, Unified Guitar Works-http://www.unifiedguitarworks.com/, ToneRevival Guitars, Woodward Custom Guitar Co. (Detroit), Walla Walla Guitar Co., Scott Walker Guitars</t>
+  </si>
+  <si>
+    <t>Barlow, LsL, Dunable, Born, Scott Walker Guitars, Walla Walla Guitar Co.</t>
+  </si>
+  <si>
+    <t>Crook Custom Guitars, Zeal Guitars, Ralph and Sandy's Custom Shop, Dean Zelinsky Guitars, Retro Guitars, Walla Walla Guitar Co.</t>
+  </si>
+  <si>
+    <t>Asher, Chatsworth, Walker, Jackson</t>
   </si>
 </sst>
 </file>
@@ -936,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED715EF2-3FF9-4C28-BB63-69D08E99D979}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.42578125" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -953,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -962,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -981,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,10 +986,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1003,10 +997,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,10 +1008,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,10 +1030,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,21 +1041,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,10 +1085,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1102,10 +1096,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,10 +1107,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,10 +1118,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,10 +1129,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,43 +1140,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,10 +1184,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,21 +1195,21 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,10 +1217,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,10 +1228,10 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,10 +1239,10 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1256,10 +1250,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,21 +1261,21 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,10 +1283,10 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,21 +1294,21 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,10 +1316,10 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,10 +1327,10 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1344,10 +1338,10 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,7 +1349,10 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1363,139 +1360,142 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>121</v>
+        <v>70</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
         <v>81</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,70 +1503,59 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>147</v>
-      </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C42" r:id="rId1" display="https://www.facebook.com/highwaterguitars/ Mark Megaro" xr:uid="{9F5F3326-D36C-45AA-A87C-2129EC923B62}"/>
+    <hyperlink ref="C40" r:id="rId1" display="https://www.facebook.com/highwaterguitars/ Mark Megaro" xr:uid="{9F5F3326-D36C-45AA-A87C-2129EC923B62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/seeding/subcategories-features-seeding.xlsx
+++ b/seeding/subcategories-features-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9008EC-BA25-4430-AE43-9C1A959D9CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BA2FE-6B80-43B6-8D68-23CAFE2359CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663A57D0-1015-4C62-B290-2E06E81370DC}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Aluminum Construction Electric Guitars</t>
   </si>
   <si>
-    <t>Steel Construction Electric Guitars</t>
-  </si>
-  <si>
     <t>Metal Construction Electric Guitars</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Metal Construction</t>
   </si>
   <si>
-    <t>Steel Construction</t>
-  </si>
-  <si>
     <t>Baritone</t>
   </si>
   <si>
@@ -305,9 +299,6 @@
     <t>Ozztosh, Aluminati, Drewman</t>
   </si>
   <si>
-    <t>James Trussart</t>
-  </si>
-  <si>
     <t>Brand O'Guitar</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
     <t>Clear Creek Guitar Co., Beltona, Danelectro, Beard, Mule, National, Republic, Eastwood</t>
   </si>
   <si>
-    <t>Maybach, Eastman, Jerry Corsa</t>
-  </si>
-  <si>
     <t>Phantom Guitar Works</t>
   </si>
   <si>
@@ -488,18 +476,9 @@
     <t>Dean Zelinsky Guitars</t>
   </si>
   <si>
-    <t>Cindy, Creston Lea, Vigier, James Trussart, Postal, Walla Walla, McSwain</t>
-  </si>
-  <si>
-    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars,</t>
-  </si>
-  <si>
     <t>Gretsch, Collings, Ibanez, Epiphone, Fibertone, Master Craftsman Guitars</t>
   </si>
   <si>
-    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars, Unified Guitar Works-http://www.unifiedguitarworks.com/, ToneRevival Guitars, Woodward Custom Guitar Co. (Detroit), Walla Walla Guitar Co., Scott Walker Guitars</t>
-  </si>
-  <si>
     <t>Barlow, LsL, Dunable, Born, Scott Walker Guitars, Walla Walla Guitar Co.</t>
   </si>
   <si>
@@ -507,6 +486,27 @@
   </si>
   <si>
     <t>Asher, Chatsworth, Walker, Jackson</t>
+  </si>
+  <si>
+    <t>Atlaswood Guitars</t>
+  </si>
+  <si>
+    <t>Atlaswood</t>
+  </si>
+  <si>
+    <t>GOC Guitars, China</t>
+  </si>
+  <si>
+    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars, Schwung Guitars, Bassart Guitars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybach, Eastman, Jerry Corsa, Orca by Nik Huber, Jörg Tandler </t>
+  </si>
+  <si>
+    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars, Unified Guitar Works-http://www.unifiedguitarworks.com/, ToneRevival Guitars, Woodward Custom Guitar Co. (Detroit), Walla Walla Guitar Co., Scott Walker Guitars, Baboushka Guitars</t>
+  </si>
+  <si>
+    <t>Cindy, Creston Lea, Vigier, James Trussart, Postal, Walla Walla, McSwain, Deimel, Jersey Girl, Jens Ritter, Spalt Instruments, Baboushka Guitars</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED715EF2-3FF9-4C28-BB63-69D08E99D979}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.42578125" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -986,10 +986,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -997,10 +997,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,10 +1008,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,21 +1019,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,21 +1041,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1074,32 +1074,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1107,450 +1107,450 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
-        <v>80</v>
-      </c>
       <c r="C50" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
         <v>79</v>
       </c>
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/seeding/subcategories-features-seeding.xlsx
+++ b/seeding/subcategories-features-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BA2FE-6B80-43B6-8D68-23CAFE2359CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627F4078-F5BE-4FE0-A738-230C4C650599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663A57D0-1015-4C62-B290-2E06E81370DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="172">
   <si>
     <t>Subcategories - Features</t>
   </si>
@@ -263,9 +263,6 @@
     <t>For Girls</t>
   </si>
   <si>
-    <t>Semi-Hollow Body</t>
-  </si>
-  <si>
     <t>Hollow-Body</t>
   </si>
   <si>
@@ -290,15 +287,9 @@
     <t>Somnium, Relish, Gyrock by Wild Customs</t>
   </si>
   <si>
-    <t>Electrophonic Innovations</t>
-  </si>
-  <si>
     <t>Bad Seed, Alquier</t>
   </si>
   <si>
-    <t>Ozztosh, Aluminati, Drewman</t>
-  </si>
-  <si>
     <t>Brand O'Guitar</t>
   </si>
   <si>
@@ -308,18 +299,12 @@
     <t>Godin, Kiesel, Gillett, (Peter White's Guitar), Ibanez(?)</t>
   </si>
   <si>
-    <t>B.C. Rich, Daemoness</t>
-  </si>
-  <si>
     <t>Prism, Gallasso</t>
   </si>
   <si>
     <t>Bohemian Guitars, Hayburner Guitars</t>
   </si>
   <si>
-    <t>Clear Creek Guitar Co., Beltona, Danelectro, Beard, Mule, National, Republic, Eastwood</t>
-  </si>
-  <si>
     <t>Phantom Guitar Works</t>
   </si>
   <si>
@@ -350,18 +335,12 @@
     <t>Flaxwood</t>
   </si>
   <si>
-    <t>Abasi Concepts</t>
-  </si>
-  <si>
     <t>Charvel, Luxxtone</t>
   </si>
   <si>
     <t>San Dimas</t>
   </si>
   <si>
-    <t>Hard Luck Kings</t>
-  </si>
-  <si>
     <t>B.A. Ferguson Guitars</t>
   </si>
   <si>
@@ -383,12 +362,6 @@
     <t>Paisleys</t>
   </si>
   <si>
-    <t>Krappy Guitars</t>
-  </si>
-  <si>
-    <t>Fano, Novo, BilT, Rivolta, DiPinto, MusicVox</t>
-  </si>
-  <si>
     <t>Strandberg, Claas</t>
   </si>
   <si>
@@ -410,9 +383,6 @@
     <t>Grez, Reverend, Danelectro, Chapman ML3, Ibanez, PRS, Supro, LsL</t>
   </si>
   <si>
-    <t>Italia, Reverend, Eastwood, Guild Starfire, Fender, Gretsch, Godin, Taylor, Rickenbacker</t>
-  </si>
-  <si>
     <t>Fiberglass Guitars</t>
   </si>
   <si>
@@ -443,9 +413,6 @@
     <t>Fretlight Guitars, Visual Note (Italy)</t>
   </si>
   <si>
-    <t>James Trussart, Zemaitis</t>
-  </si>
-  <si>
     <t>Licea, Alquier, Zerberus</t>
   </si>
   <si>
@@ -476,9 +443,6 @@
     <t>Dean Zelinsky Guitars</t>
   </si>
   <si>
-    <t>Gretsch, Collings, Ibanez, Epiphone, Fibertone, Master Craftsman Guitars</t>
-  </si>
-  <si>
     <t>Barlow, LsL, Dunable, Born, Scott Walker Guitars, Walla Walla Guitar Co.</t>
   </si>
   <si>
@@ -497,16 +461,94 @@
     <t>GOC Guitars, China</t>
   </si>
   <si>
-    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars, Schwung Guitars, Bassart Guitars</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maybach, Eastman, Jerry Corsa, Orca by Nik Huber, Jörg Tandler </t>
   </si>
   <si>
-    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars, Unified Guitar Works-http://www.unifiedguitarworks.com/, ToneRevival Guitars, Woodward Custom Guitar Co. (Detroit), Walla Walla Guitar Co., Scott Walker Guitars, Baboushka Guitars</t>
-  </si>
-  <si>
-    <t>Cindy, Creston Lea, Vigier, James Trussart, Postal, Walla Walla, McSwain, Deimel, Jersey Girl, Jens Ritter, Spalt Instruments, Baboushka Guitars</t>
+    <t>Fano, Novo, BilT, Rivolta, DiPinto, MusicVox, Rivolta</t>
+  </si>
+  <si>
+    <t>James Trussart,  Tyyster Guitars</t>
+  </si>
+  <si>
+    <t>Metal-Face Guitars</t>
+  </si>
+  <si>
+    <t>Meta-Face</t>
+  </si>
+  <si>
+    <t>Ozztosh, Aluminati, Drewman, Electrical Guitar Company, Specimen Guitars, Relish Guitars</t>
+  </si>
+  <si>
+    <t>Teye, Zemaitus, Orn, Zeal, Cynosure</t>
+  </si>
+  <si>
+    <t>B.C. Rich, Daemoness, Monson, Cynosure, Voodoo Custom Guitars</t>
+  </si>
+  <si>
+    <t>Scalloped-Neck Guitars</t>
+  </si>
+  <si>
+    <t>DC Custom Guitars, Halo Custom Guitars</t>
+  </si>
+  <si>
+    <t>Electrophonic Innovations, Pignose, Fusion Guitars (Australia)</t>
+  </si>
+  <si>
+    <t>Cindy, Creston Lea, Vigier, James Trussart, Postal, Walla Walla, McSwain, Deimel, Jersey Girl, Jens Ritter, Spalt Instruments, Baboushka Guitars, Painted Player Co., Zemaitis, Teye</t>
+  </si>
+  <si>
+    <t>Wide Neck Guitars</t>
+  </si>
+  <si>
+    <t>Wide Neck</t>
+  </si>
+  <si>
+    <t>Halo Guitars, Big Lou Guitars</t>
+  </si>
+  <si>
+    <t>Hard Luck Kings, Charvel, Jackson, EVH, ESP, Ibanez, Daemoness, Cynosure, Voodoo Custom Guitars, DC Custom Guitars, Halo Guitars</t>
+  </si>
+  <si>
+    <t>Abasi Concepts, Halo Guitars</t>
+  </si>
+  <si>
+    <t>Wallace Detroit Guitars, Kelly Guitars (Bowery Pine Series), Ronin Guitars, Unified Guitar Works-http://www.unifiedguitarworks.com/, ToneRevival Guitars, Woodward Custom Guitar Co. (Detroit), Walla Walla Guitar Co., Scott Walker Guitars, Baboushka Guitars, Paoletti Guitars</t>
+  </si>
+  <si>
+    <t>Semi-Hollow Body/Center  Block</t>
+  </si>
+  <si>
+    <t>Gretsch, Collings, Ibanez, Epiphone, Fibertone, Master Craftsman Guitars. Paul Lairat, Phred Instruments, Yanuziello, Gretsch</t>
+  </si>
+  <si>
+    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars, Schwung Guitars, Bassart Guitars, Strattman Originals, Hofner, Gretsch, Maudal Musical Machines</t>
+  </si>
+  <si>
+    <t>Clear Creek Guitar Co., Beltona, Danelectro, Beard, Mule, National, Republic, Eastwood, Yanuziello, Maudal Musical Machines</t>
+  </si>
+  <si>
+    <t>Italia, Reverend, Eastwood, Guild Starfire, Fender, Gretsch, Godin, Taylor, Rickenbacker, Musicvox</t>
+  </si>
+  <si>
+    <t>Electric Mandolins</t>
+  </si>
+  <si>
+    <t>Electric Ukeleles</t>
+  </si>
+  <si>
+    <t>Belvoir Guitars, Manndolins</t>
+  </si>
+  <si>
+    <t>Manndolins</t>
+  </si>
+  <si>
+    <t>Krappy Guitars, Brand O' Guitar</t>
+  </si>
+  <si>
+    <t>Gypsy Jazz  Guitars</t>
+  </si>
+  <si>
+    <t>Eimers, Shelley Park, AJL, Alex Bishop</t>
   </si>
 </sst>
 </file>
@@ -631,6 +673,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Guitar Blog: Helliver guitars made in Germany">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E5E129-70E3-4E19-8F28-CFB4338A361A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13906500" y="3505200"/>
+          <a:ext cx="1809750" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED715EF2-3FF9-4C28-BB63-69D08E99D979}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.42578125" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -967,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,7 +1086,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -989,7 +1097,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1000,7 +1108,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,7 +1119,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,7 +1130,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1033,7 +1141,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,18 +1152,18 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1066,7 +1174,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1077,7 +1185,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,476 +1196,537 @@
         <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>31</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>149</v>
+      <c r="C41" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>32</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>75</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" t="s">
-        <v>78</v>
-      </c>
       <c r="C50" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>80</v>
-      </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>146</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1" display="https://www.facebook.com/highwaterguitars/ Mark Megaro" xr:uid="{9F5F3326-D36C-45AA-A87C-2129EC923B62}"/>
+    <hyperlink ref="C41" r:id="rId1" display="https://www.facebook.com/highwaterguitars/ Mark Megaro" xr:uid="{9F5F3326-D36C-45AA-A87C-2129EC923B62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/seeding/subcategories-features-seeding.xlsx
+++ b/seeding/subcategories-features-seeding.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627F4078-F5BE-4FE0-A738-230C4C650599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FECAE6-3DF8-41E2-890D-96CE63A4D083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663A57D0-1015-4C62-B290-2E06E81370DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="174">
   <si>
     <t>Subcategories - Features</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Brand O'Guitar</t>
   </si>
   <si>
-    <t>Traveler Guitar, Stroebel, Stewart Guitar Co., Chiquita by Erlewine, Ciari, Hofner</t>
-  </si>
-  <si>
     <t>Godin, Kiesel, Gillett, (Peter White's Guitar), Ibanez(?)</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>Rob O'Reilly, Godin, Kiesel,  Jamstix, PlayJammy.com, Digital Ear https://www.digital-ear.com/digital-ear/index.asp, Jam Origin</t>
   </si>
   <si>
-    <t>Dansan, RS Custom Guitars http://rscustomguitars.com/, Brian May, The Guyton Guitar Co.</t>
-  </si>
-  <si>
     <t>Fretlight Guitars, Visual Note (Italy)</t>
   </si>
   <si>
@@ -461,9 +455,6 @@
     <t>GOC Guitars, China</t>
   </si>
   <si>
-    <t xml:space="preserve">Maybach, Eastman, Jerry Corsa, Orca by Nik Huber, Jörg Tandler </t>
-  </si>
-  <si>
     <t>Fano, Novo, BilT, Rivolta, DiPinto, MusicVox, Rivolta</t>
   </si>
   <si>
@@ -521,9 +512,6 @@
     <t>Gretsch, Collings, Ibanez, Epiphone, Fibertone, Master Craftsman Guitars. Paul Lairat, Phred Instruments, Yanuziello, Gretsch</t>
   </si>
   <si>
-    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars, Schwung Guitars, Bassart Guitars, Strattman Originals, Hofner, Gretsch, Maudal Musical Machines</t>
-  </si>
-  <si>
     <t>Clear Creek Guitar Co., Beltona, Danelectro, Beard, Mule, National, Republic, Eastwood, Yanuziello, Maudal Musical Machines</t>
   </si>
   <si>
@@ -548,7 +536,25 @@
     <t>Gypsy Jazz  Guitars</t>
   </si>
   <si>
-    <t>Eimers, Shelley Park, AJL, Alex Bishop</t>
+    <t>Gitane, Eimers, Shelley Park, AJL, Alex Bishop, Tremblay</t>
+  </si>
+  <si>
+    <t>Maybach, Eastman, Jerry Corsa, Orca by Nik Huber, Jörg Tandler , Corsa Guitars</t>
+  </si>
+  <si>
+    <t>XXL Guitars</t>
+  </si>
+  <si>
+    <t>DanelectroTM-Style Guitars</t>
+  </si>
+  <si>
+    <t>Dansan, RS Custom Guitars http://rscustomguitars.com/, Brian May, The Guyton Guitar Co., Kz Guitar Works</t>
+  </si>
+  <si>
+    <t>Traveler Guitar, Stroebel, Stewart Guitar Co., Chiquita by Erlewine, Ciari, Hofner, PH Guitars, Snap Dragon Guitars</t>
+  </si>
+  <si>
+    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars, Schwung Guitars, Bassart Guitars, Strattman Originals, Hofner, Gretsch, Maudal Musical Machines, James Collins Guitars</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED715EF2-3FF9-4C28-BB63-69D08E99D979}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.42578125" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1081,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,7 +1092,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,7 +1103,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,7 +1136,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1141,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1152,18 +1158,18 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
         <v>116</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1185,7 +1191,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1196,18 +1202,18 @@
         <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,7 +1224,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,13 +1240,13 @@
     </row>
     <row r="18" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,7 +1257,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,40 +1268,40 @@
         <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,7 +1312,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1317,18 +1323,18 @@
         <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1339,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1356,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,7 +1367,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,7 +1378,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1389,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,7 +1400,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,7 +1411,7 @@
         <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1416,7 +1422,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +1433,7 @@
         <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1438,7 +1444,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,7 +1455,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,7 +1466,7 @@
         <v>65</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1477,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,7 +1488,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,29 +1499,29 @@
         <v>68</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,7 +1532,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,7 +1543,7 @@
         <v>72</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,7 +1554,7 @@
         <v>70</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,7 +1565,7 @@
         <v>71</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1570,7 +1576,7 @@
         <v>73</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,7 +1587,7 @@
         <v>74</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,29 +1598,29 @@
         <v>75</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,7 +1631,7 @@
         <v>78</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,89 +1642,97 @@
         <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
         <v>121</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>171</v>
+      <c r="C63" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/seeding/subcategories-features-seeding.xlsx
+++ b/seeding/subcategories-features-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FECAE6-3DF8-41E2-890D-96CE63A4D083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4760AE-8DAC-4611-BA05-9D6533C16F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663A57D0-1015-4C62-B290-2E06E81370DC}"/>
   </bookViews>
@@ -554,7 +554,7 @@
     <t>Traveler Guitar, Stroebel, Stewart Guitar Co., Chiquita by Erlewine, Ciari, Hofner, PH Guitars, Snap Dragon Guitars</t>
   </si>
   <si>
-    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars, Schwung Guitars, Bassart Guitars, Strattman Originals, Hofner, Gretsch, Maudal Musical Machines, James Collins Guitars</t>
+    <t>D'Angelico, Duesenberg, McCurdy, Gibson, Heritage, Collings, Josh Williams Guitars, Ibanez, Epiphone, Sublime, Gretsch(?), Scott Walker Custom Guitars, Master Craftsman Guitars, Schwung Guitars, Bassart Guitars, Strattman Originals, Hofner, Gretsch, Maudal Musical Machines, James Collins Guitars, Comins Guitars</t>
   </si>
 </sst>
 </file>
